--- a/Main_Assignment/User.xlsx
+++ b/Main_Assignment/User.xlsx
@@ -391,7 +391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -492,6 +492,52 @@
         <v>1234456</v>
       </c>
       <c r="E4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>nara</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nara@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>nara</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>24343</v>
+      </c>
+      <c r="E5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nara</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>nara</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>nara@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>24543434</v>
+      </c>
+      <c r="E6" t="n">
         <v>23</v>
       </c>
     </row>
